--- a/uploads/Sample File.xlsx
+++ b/uploads/Sample File.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE965F8-A9C9-42CF-9B46-238037B917E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DF6338-8852-4D74-9BFE-7965EB0B2934}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65E5DB03-5E38-4106-ADFB-301DE085CB8F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{65E5DB03-5E38-4106-ADFB-301DE085CB8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="366">
   <si>
     <t>AAPPASAMY RAJENDRAN</t>
   </si>
@@ -1132,13 +1126,16 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>naheem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,16 +1576,16 @@
   <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>362</v>
       </c>
@@ -1596,7 +1593,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>96748816</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>96813859</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1617,7 @@
         <v>81004154</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>90147870</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1636,1557 +1633,785 @@
         <v>97372474</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="B7" s="2">
-        <v>81308416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>90089421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>94374562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>98750907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>97834422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>81833649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
-        <v>98278712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2">
-        <v>96779674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2">
-        <v>96278065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2">
-        <v>91442784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2">
-        <v>92232450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2">
-        <v>98389769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2">
-        <v>94595048</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2">
-        <v>98780844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2">
-        <v>90543121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2">
-        <v>98531178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2">
-        <v>98457756</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2">
-        <v>96924471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2">
-        <v>98414007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2">
-        <v>97661143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2">
-        <v>96916292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2">
-        <v>98353205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="2">
-        <v>91071778</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2">
-        <v>97481462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="2">
-        <v>97491480</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2">
-        <v>97829589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="2">
-        <v>90691526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="2">
-        <v>97502579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="2">
-        <v>90810325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="2">
-        <v>97508009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="2">
-        <v>97527443</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="2">
-        <v>98538514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2">
-        <v>97818368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="2">
-        <v>98330479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2">
-        <v>98752500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="2">
-        <v>92711669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="2">
-        <v>96857141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="2">
-        <v>98343409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2">
-        <v>98505153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="2">
-        <v>96979154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="2">
-        <v>98735161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="2">
-        <v>98290860</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="2">
-        <v>81983240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="2">
-        <v>90095879</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="2">
-        <v>98758755</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="2">
-        <v>82883251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="2">
-        <v>98374927</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="2">
-        <v>90959524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="2">
-        <v>91000456</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="2">
-        <v>96953512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="2">
-        <v>97491873</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="2">
-        <v>98489700</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="2">
-        <v>98340650</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="2">
-        <v>96364469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="2">
-        <v>97488574</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="2">
-        <v>90066998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="2">
-        <v>90285330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="2">
-        <v>82010186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="2">
-        <v>98281974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="2">
-        <v>94555920</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="2">
-        <v>98510153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="2">
-        <v>98715697</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="2">
-        <v>98426565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="2">
-        <v>98181120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="2">
-        <v>98421700</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="2">
-        <v>91015546</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="2">
-        <v>98626937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" s="2">
-        <v>96972996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="2">
-        <v>97475587</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="2">
-        <v>97438700</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="2">
-        <v>97833360</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="2">
-        <v>98758488</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="2">
-        <v>97494896</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="2">
-        <v>96260505</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="2">
-        <v>97922319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="2">
-        <v>96178550</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="2">
-        <v>97486933</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="2">
-        <v>97517480</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="2">
-        <v>98386429</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" s="2">
-        <v>98287936</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="2">
-        <v>98456793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="2">
-        <v>98421859</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="2">
-        <v>98755788</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" s="2">
-        <v>98581505</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B91" s="2">
-        <v>97530084</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B92" s="2">
-        <v>97479586</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" s="2">
-        <v>98552688</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="2">
-        <v>98735283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="2">
-        <v>98577760</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96" s="2">
-        <v>90281457</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" s="2">
-        <v>90186941</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="2">
-        <v>98436609</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B99" s="2">
-        <v>97479179</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B100" s="2">
-        <v>98629971</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B101" s="2">
-        <v>98292779</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B102" s="2">
-        <v>93804098</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B103" s="2">
-        <v>96622298</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B104" s="2">
-        <v>97610746</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105" s="2">
-        <v>98786112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B106" s="2">
-        <v>98718471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="2">
-        <v>98399280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B108" s="2">
-        <v>98731677</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B109" s="2">
-        <v>98426161</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" s="2">
-        <v>92473800</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="2">
-        <v>98353790</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B112" s="2">
-        <v>98566966</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B113" s="2">
-        <v>98753540</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B114" s="2">
-        <v>91288447</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B115" s="2">
-        <v>98388319</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B116" s="2">
-        <v>91245580</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B117" s="2">
-        <v>97498364</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B118" s="2">
-        <v>81251356</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B119" s="2">
-        <v>98324979</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B120" s="2">
-        <v>98502140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B121" s="2">
-        <v>98297941</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" s="2">
-        <v>91785053</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" s="2">
-        <v>98738517</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" s="2">
-        <v>94350606</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B125" s="2">
-        <v>96759150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B126" s="2">
-        <v>98628316</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B127" s="2">
-        <v>97389549</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B128" s="2">
-        <v>97497767</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" s="2">
-        <v>98338233</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B130" s="2">
-        <v>96390577</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B131" s="2">
-        <v>97523760</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B132" s="2">
-        <v>98535400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B133" s="2">
-        <v>97554388</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B134" s="2">
-        <v>98364912</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B135" s="2">
-        <v>97531054</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B136" s="2">
-        <v>90606235</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B137" s="2">
-        <v>93652546</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B138" s="2">
-        <v>98307082</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B139" s="2">
-        <v>91823934</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B140" s="2">
-        <v>93766678</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B141" s="2">
-        <v>98592053</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B142" s="2">
-        <v>97994905</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B143" s="2">
-        <v>98592001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B144" s="2">
-        <v>94555589</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B145" s="2">
-        <v>96661915</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B146" s="2">
-        <v>93623087</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B147" s="2">
-        <v>98254650</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B148" s="2">
-        <v>98622375</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B149" s="2">
-        <v>98467164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B150" s="2">
-        <v>97558788</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B151" s="2">
-        <v>98299087</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B152" s="2">
-        <v>97476902</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B153" s="2">
-        <v>98466654</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B154" s="2">
-        <v>98757632</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B155" s="2">
-        <v>98776990</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B156" s="2">
-        <v>98339673</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B157" s="2">
-        <v>98715955</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B158" s="2">
-        <v>96335917</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B159" s="2">
-        <v>97427641</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B160" s="2">
-        <v>98246474</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B161" s="2">
-        <v>97903203</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B162" s="2">
-        <v>97901010</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B163" s="2">
-        <v>97407393</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B164" s="2">
-        <v>98629689</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B165" s="2">
-        <v>98775048</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B166" s="2">
-        <v>98566620</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B167" s="2">
-        <v>98522186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B168" s="2">
-        <v>98320114</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B169" s="2">
-        <v>98457455</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B170" s="2">
-        <v>96580770</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B171" s="2">
-        <v>98288350</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B172" s="2">
-        <v>90116210</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B173" s="2">
-        <v>94891445</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B174" s="2">
-        <v>90288425</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B175" s="2">
-        <v>96409303</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B176" s="2">
-        <v>97541635</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B177" s="2">
-        <v>98554319</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B178" s="2">
-        <v>98362838</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B179" s="2">
-        <v>97477736</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B180" s="2">
-        <v>98332259</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B181" s="2">
-        <v>90266277</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B182" s="2">
-        <v>97469616</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B183" s="2">
-        <v>92713305</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B184" s="2">
-        <v>90282760</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B185" s="2">
-        <v>98579841</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B186" s="2">
-        <v>97396514</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B187" s="2">
-        <v>98582480</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B188" s="2">
-        <v>97395761</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B189" s="2">
-        <v>96494169</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B190" s="2">
-        <v>97500205</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B191" s="2">
-        <v>98422703</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B192" s="2">
-        <v>98951028</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B193" s="2">
-        <v>98332567</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B194" s="2">
-        <v>98789588</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B195" s="2">
-        <v>98630667</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B196" s="2">
-        <v>97473568</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B197" s="2">
-        <v>96698789</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B198" s="2">
-        <v>97883779</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B199" s="2">
-        <v>98269100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B200" s="2">
-        <v>98285723</v>
-      </c>
+        <v>2347049972537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B200">
@@ -3212,14 +2437,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>362</v>
       </c>
@@ -3230,7 +2455,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +2466,7 @@
         <v>96748816</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3250,7 +2475,7 @@
         <v>96813859</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3261,7 +2486,7 @@
         <v>81004154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3272,7 +2497,7 @@
         <v>90147870</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3283,7 +2508,7 @@
         <v>97372474</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3294,7 +2519,7 @@
         <v>81308416</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3303,7 +2528,7 @@
         <v>90089421</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +2537,7 @@
         <v>94374562</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3323,7 +2548,7 @@
         <v>98750907</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3334,7 +2559,7 @@
         <v>97834422</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -3345,7 +2570,7 @@
         <v>81833649</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3356,7 +2581,7 @@
         <v>98278712</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3367,7 +2592,7 @@
         <v>96779674</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3378,7 +2603,7 @@
         <v>96278065</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -3389,7 +2614,7 @@
         <v>91442784</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3400,7 +2625,7 @@
         <v>92232450</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3411,7 +2636,7 @@
         <v>98389769</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -3422,7 +2647,7 @@
         <v>94595048</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +2658,7 @@
         <v>98780844</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -3444,7 +2669,7 @@
         <v>90543121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -3455,7 +2680,7 @@
         <v>98531178</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3466,7 +2691,7 @@
         <v>98457756</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3477,7 +2702,7 @@
         <v>96924471</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3486,7 +2711,7 @@
         <v>98414007</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3495,7 +2720,7 @@
         <v>97661143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -3504,7 +2729,7 @@
         <v>96916292</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +2740,7 @@
         <v>98353205</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -3524,7 +2749,7 @@
         <v>91071778</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,7 +2760,7 @@
         <v>97481462</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3546,7 +2771,7 @@
         <v>97491480</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -3557,7 +2782,7 @@
         <v>97829589</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
@@ -3568,7 +2793,7 @@
         <v>90691526</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -3579,7 +2804,7 @@
         <v>97502579</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3590,7 +2815,7 @@
         <v>90810325</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -3601,7 +2826,7 @@
         <v>97508009</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -3612,7 +2837,7 @@
         <v>97527443</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -3623,7 +2848,7 @@
         <v>98538514</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
@@ -3634,7 +2859,7 @@
         <v>97818368</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -3645,7 +2870,7 @@
         <v>98330479</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -3656,7 +2881,7 @@
         <v>98752500</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -3667,7 +2892,7 @@
         <v>92711669</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -3678,7 +2903,7 @@
         <v>96857141</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -3689,7 +2914,7 @@
         <v>98343409</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -3700,7 +2925,7 @@
         <v>98505153</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -3711,7 +2936,7 @@
         <v>96979154</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -3722,7 +2947,7 @@
         <v>98735161</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -3733,7 +2958,7 @@
         <v>98290860</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
@@ -3744,7 +2969,7 @@
         <v>81983240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
@@ -3753,7 +2978,7 @@
         <v>90095879</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
@@ -3764,7 +2989,7 @@
         <v>98758755</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
@@ -3775,7 +3000,7 @@
         <v>82883251</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -3784,7 +3009,7 @@
         <v>98374927</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -3793,7 +3018,7 @@
         <v>90959524</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
@@ -3802,7 +3027,7 @@
         <v>91000456</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
@@ -3813,7 +3038,7 @@
         <v>96953512</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>99</v>
       </c>
@@ -3824,7 +3049,7 @@
         <v>97491873</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>101</v>
       </c>
@@ -3833,7 +3058,7 @@
         <v>98489700</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>102</v>
       </c>
@@ -3844,7 +3069,7 @@
         <v>98340650</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>104</v>
       </c>
@@ -3853,7 +3078,7 @@
         <v>96364469</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
@@ -3864,7 +3089,7 @@
         <v>97488574</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
@@ -3873,7 +3098,7 @@
         <v>90066998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
@@ -3882,7 +3107,7 @@
         <v>90285330</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
@@ -3893,7 +3118,7 @@
         <v>82010186</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>111</v>
       </c>
@@ -3904,7 +3129,7 @@
         <v>98281974</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -3915,7 +3140,7 @@
         <v>94555920</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>115</v>
       </c>
@@ -3926,7 +3151,7 @@
         <v>98510153</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>117</v>
       </c>
@@ -3937,7 +3162,7 @@
         <v>98715697</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>119</v>
       </c>
@@ -3948,7 +3173,7 @@
         <v>98426565</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -3957,7 +3182,7 @@
         <v>98181120</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>122</v>
       </c>
@@ -3968,7 +3193,7 @@
         <v>98421700</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>124</v>
       </c>
@@ -3979,7 +3204,7 @@
         <v>91015546</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>126</v>
       </c>
@@ -3990,7 +3215,7 @@
         <v>98626937</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
@@ -4001,7 +3226,7 @@
         <v>96972996</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -4012,7 +3237,7 @@
         <v>97475587</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
@@ -4023,7 +3248,7 @@
         <v>97438700</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>134</v>
       </c>
@@ -4034,7 +3259,7 @@
         <v>97833360</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
@@ -4045,7 +3270,7 @@
         <v>98758488</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>138</v>
       </c>
@@ -4056,7 +3281,7 @@
         <v>97494896</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
@@ -4067,7 +3292,7 @@
         <v>96260505</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>142</v>
       </c>
@@ -4078,7 +3303,7 @@
         <v>97922319</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>144</v>
       </c>
@@ -4089,7 +3314,7 @@
         <v>96178550</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
@@ -4100,7 +3325,7 @@
         <v>97486933</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>148</v>
       </c>
@@ -4111,7 +3336,7 @@
         <v>97517480</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>150</v>
       </c>
@@ -4122,7 +3347,7 @@
         <v>98386429</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>152</v>
       </c>
@@ -4133,7 +3358,7 @@
         <v>98287936</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>154</v>
       </c>
@@ -4144,7 +3369,7 @@
         <v>98456793</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>156</v>
       </c>
@@ -4155,7 +3380,7 @@
         <v>98421859</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>158</v>
       </c>
@@ -4166,7 +3391,7 @@
         <v>98755788</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>160</v>
       </c>
@@ -4177,7 +3402,7 @@
         <v>98581505</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>162</v>
       </c>
@@ -4188,7 +3413,7 @@
         <v>97530084</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>164</v>
       </c>
@@ -4199,7 +3424,7 @@
         <v>97479586</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>166</v>
       </c>
@@ -4210,7 +3435,7 @@
         <v>98552688</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>168</v>
       </c>
@@ -4221,7 +3446,7 @@
         <v>98735283</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>170</v>
       </c>
@@ -4232,7 +3457,7 @@
         <v>98577760</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>172</v>
       </c>
@@ -4243,7 +3468,7 @@
         <v>90281457</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>174</v>
       </c>
@@ -4254,7 +3479,7 @@
         <v>90186941</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
@@ -4265,7 +3490,7 @@
         <v>98436609</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>178</v>
       </c>
@@ -4276,7 +3501,7 @@
         <v>97479179</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>180</v>
       </c>
@@ -4287,7 +3512,7 @@
         <v>98629971</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>182</v>
       </c>
@@ -4298,7 +3523,7 @@
         <v>98292779</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>184</v>
       </c>
@@ -4309,7 +3534,7 @@
         <v>93804098</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>186</v>
       </c>
@@ -4318,7 +3543,7 @@
         <v>96622298</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>187</v>
       </c>
@@ -4329,7 +3554,7 @@
         <v>97610746</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>189</v>
       </c>
@@ -4340,7 +3565,7 @@
         <v>98786112</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>191</v>
       </c>
@@ -4351,7 +3576,7 @@
         <v>98718471</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>193</v>
       </c>
@@ -4362,7 +3587,7 @@
         <v>98399280</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>195</v>
       </c>
@@ -4373,7 +3598,7 @@
         <v>98731677</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>197</v>
       </c>
@@ -4384,7 +3609,7 @@
         <v>98426161</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>199</v>
       </c>
@@ -4393,7 +3618,7 @@
         <v>92473800</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>200</v>
       </c>
@@ -4404,7 +3629,7 @@
         <v>98353790</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>202</v>
       </c>
@@ -4415,7 +3640,7 @@
         <v>98566966</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>204</v>
       </c>
@@ -4426,7 +3651,7 @@
         <v>98753540</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>206</v>
       </c>
@@ -4437,7 +3662,7 @@
         <v>91288447</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>208</v>
       </c>
@@ -4448,7 +3673,7 @@
         <v>98388319</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>210</v>
       </c>
@@ -4459,7 +3684,7 @@
         <v>91245580</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>212</v>
       </c>
@@ -4470,7 +3695,7 @@
         <v>97498364</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>214</v>
       </c>
@@ -4481,7 +3706,7 @@
         <v>81251356</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>216</v>
       </c>
@@ -4492,7 +3717,7 @@
         <v>98324979</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>218</v>
       </c>
@@ -4503,7 +3728,7 @@
         <v>98502140</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>220</v>
       </c>
@@ -4514,7 +3739,7 @@
         <v>98297941</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>222</v>
       </c>
@@ -4525,7 +3750,7 @@
         <v>91785053</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>224</v>
       </c>
@@ -4536,7 +3761,7 @@
         <v>98738517</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>226</v>
       </c>
@@ -4545,7 +3770,7 @@
         <v>94350606</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>227</v>
       </c>
@@ -4554,7 +3779,7 @@
         <v>96759150</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>228</v>
       </c>
@@ -4565,7 +3790,7 @@
         <v>98628316</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>230</v>
       </c>
@@ -4576,7 +3801,7 @@
         <v>97389549</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>232</v>
       </c>
@@ -4587,7 +3812,7 @@
         <v>97497767</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>234</v>
       </c>
@@ -4598,7 +3823,7 @@
         <v>98338233</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>236</v>
       </c>
@@ -4609,7 +3834,7 @@
         <v>96390577</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>238</v>
       </c>
@@ -4620,7 +3845,7 @@
         <v>97523760</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>240</v>
       </c>
@@ -4631,7 +3856,7 @@
         <v>98535400</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>242</v>
       </c>
@@ -4642,7 +3867,7 @@
         <v>97554388</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>244</v>
       </c>
@@ -4653,7 +3878,7 @@
         <v>98364912</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>246</v>
       </c>
@@ -4664,7 +3889,7 @@
         <v>97531054</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>248</v>
       </c>
@@ -4673,7 +3898,7 @@
         <v>90606235</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>249</v>
       </c>
@@ -4684,7 +3909,7 @@
         <v>93652546</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>251</v>
       </c>
@@ -4695,7 +3920,7 @@
         <v>98307082</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>253</v>
       </c>
@@ -4704,7 +3929,7 @@
         <v>91823934</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>254</v>
       </c>
@@ -4715,7 +3940,7 @@
         <v>93766678</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>256</v>
       </c>
@@ -4726,7 +3951,7 @@
         <v>98592053</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>258</v>
       </c>
@@ -4735,7 +3960,7 @@
         <v>97994905</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>259</v>
       </c>
@@ -4746,7 +3971,7 @@
         <v>98592001</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>261</v>
       </c>
@@ -4755,7 +3980,7 @@
         <v>94555589</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>262</v>
       </c>
@@ -4766,7 +3991,7 @@
         <v>96661915</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>264</v>
       </c>
@@ -4777,7 +4002,7 @@
         <v>93623087</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>266</v>
       </c>
@@ -4788,7 +4013,7 @@
         <v>98254650</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>268</v>
       </c>
@@ -4799,7 +4024,7 @@
         <v>98622375</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>270</v>
       </c>
@@ -4808,7 +4033,7 @@
         <v>98467164</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>271</v>
       </c>
@@ -4819,7 +4044,7 @@
         <v>97558788</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>273</v>
       </c>
@@ -4830,7 +4055,7 @@
         <v>98299087</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>275</v>
       </c>
@@ -4841,7 +4066,7 @@
         <v>97476902</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>277</v>
       </c>
@@ -4852,7 +4077,7 @@
         <v>98466654</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>279</v>
       </c>
@@ -4863,7 +4088,7 @@
         <v>98757632</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>281</v>
       </c>
@@ -4874,7 +4099,7 @@
         <v>98776990</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>283</v>
       </c>
@@ -4883,7 +4108,7 @@
         <v>98339673</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>284</v>
       </c>
@@ -4894,7 +4119,7 @@
         <v>98715955</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>286</v>
       </c>
@@ -4903,7 +4128,7 @@
         <v>96335917</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>287</v>
       </c>
@@ -4912,7 +4137,7 @@
         <v>97427641</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>288</v>
       </c>
@@ -4923,7 +4148,7 @@
         <v>98246474</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>290</v>
       </c>
@@ -4934,7 +4159,7 @@
         <v>97903203</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>292</v>
       </c>
@@ -4945,7 +4170,7 @@
         <v>97901010</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>294</v>
       </c>
@@ -4954,7 +4179,7 @@
         <v>97407393</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>295</v>
       </c>
@@ -4965,7 +4190,7 @@
         <v>98629689</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>297</v>
       </c>
@@ -4976,7 +4201,7 @@
         <v>98775048</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>299</v>
       </c>
@@ -4987,7 +4212,7 @@
         <v>98566620</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>301</v>
       </c>
@@ -4998,7 +4223,7 @@
         <v>98522186</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>303</v>
       </c>
@@ -5009,7 +4234,7 @@
         <v>98320114</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>305</v>
       </c>
@@ -5020,7 +4245,7 @@
         <v>98457455</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>307</v>
       </c>
@@ -5029,7 +4254,7 @@
         <v>96580770</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>308</v>
       </c>
@@ -5040,7 +4265,7 @@
         <v>98288350</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>310</v>
       </c>
@@ -5049,7 +4274,7 @@
         <v>90116210</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>311</v>
       </c>
@@ -5060,7 +4285,7 @@
         <v>94891445</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>313</v>
       </c>
@@ -5071,7 +4296,7 @@
         <v>90288425</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>315</v>
       </c>
@@ -5080,7 +4305,7 @@
         <v>96409303</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>316</v>
       </c>
@@ -5091,7 +4316,7 @@
         <v>97541635</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>318</v>
       </c>
@@ -5100,7 +4325,7 @@
         <v>98554319</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>319</v>
       </c>
@@ -5111,7 +4336,7 @@
         <v>98362838</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>321</v>
       </c>
@@ -5122,7 +4347,7 @@
         <v>97477736</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>323</v>
       </c>
@@ -5133,7 +4358,7 @@
         <v>98332259</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>325</v>
       </c>
@@ -5142,7 +4367,7 @@
         <v>90266277</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>326</v>
       </c>
@@ -5153,7 +4378,7 @@
         <v>97469616</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>328</v>
       </c>
@@ -5164,7 +4389,7 @@
         <v>92713305</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>330</v>
       </c>
@@ -5175,7 +4400,7 @@
         <v>90282760</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>332</v>
       </c>
@@ -5186,7 +4411,7 @@
         <v>98579841</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>334</v>
       </c>
@@ -5197,7 +4422,7 @@
         <v>97396514</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>336</v>
       </c>
@@ -5208,7 +4433,7 @@
         <v>98582480</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>338</v>
       </c>
@@ -5217,7 +4442,7 @@
         <v>97395761</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>339</v>
       </c>
@@ -5228,7 +4453,7 @@
         <v>96494169</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>341</v>
       </c>
@@ -5239,7 +4464,7 @@
         <v>97500205</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>343</v>
       </c>
@@ -5250,7 +4475,7 @@
         <v>98422703</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>345</v>
       </c>
@@ -5261,7 +4486,7 @@
         <v>98951028</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>347</v>
       </c>
@@ -5272,7 +4497,7 @@
         <v>98332567</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>349</v>
       </c>
@@ -5283,7 +4508,7 @@
         <v>98789588</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>351</v>
       </c>
@@ -5294,7 +4519,7 @@
         <v>98630667</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>353</v>
       </c>
@@ -5305,7 +4530,7 @@
         <v>97473568</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>355</v>
       </c>
@@ -5314,7 +4539,7 @@
         <v>96698789</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>356</v>
       </c>
@@ -5325,7 +4550,7 @@
         <v>97883779</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>358</v>
       </c>
@@ -5336,7 +4561,7 @@
         <v>98269100</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>360</v>
       </c>
